--- a/Issue_Handle_Reward_About_CS.xlsx
+++ b/Issue_Handle_Reward_About_CS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\update\IssueHandleRecord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6550B0F3-B43C-4BA5-B875-9D3A8E1DDB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB474CAB-3AD8-4B77-AB74-6F7378BC878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AEA3B5BD-91FA-4580-A390-979FDC2DB47C}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>No|序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,26 @@
   </si>
   <si>
     <t>修改Ip地址，首先确定问题是什么，然后再排查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharding-jdbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多表数据查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套查询时，报错无法找到相关参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharding-jdbc框架暂时无法识别分解嵌套sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将sql语句进行拆分查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +969,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1293,12 +1313,24 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,76 +1343,85 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
